--- a/medicine/Enfance/India_Desjardins/India_Desjardins.xlsx
+++ b/medicine/Enfance/India_Desjardins/India_Desjardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">India Desjardins, née le 15 juillet 1976 à Québec, est une écrivaine québécoise.
 </t>
@@ -511,18 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">India Desjardins a commencé sa carrière comme journaliste pour les magazines Cool! et Clin d'œil, avant de se consacrer exclusivement à l'écriture de romans et de scénarios[1].
-India Desjardins est l’autrice de la série Le journal d’Aurélie Laflamme sorti en 2006. La série a fait l’objet de deux adaptations cinématographiques, Le Journal d'Aurélie Laflamme en 2010 et Aurélie Laflamme - Les pieds sur terre en 2015. Le personnage d'Aurélie Laflamme est joué par Marianne Verville, celui de Kat Demers par Geneviève Chartrand et le rôle de Nicolas Dubuc est rempli par Aliocha Schneider[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">India Desjardins a commencé sa carrière comme journaliste pour les magazines Cool! et Clin d'œil, avant de se consacrer exclusivement à l'écriture de romans et de scénarios.
+India Desjardins est l’autrice de la série Le journal d’Aurélie Laflamme sorti en 2006. La série a fait l’objet de deux adaptations cinématographiques, Le Journal d'Aurélie Laflamme en 2010 et Aurélie Laflamme - Les pieds sur terre en 2015. Le personnage d'Aurélie Laflamme est joué par Marianne Verville, celui de Kat Demers par Geneviève Chartrand et le rôle de Nicolas Dubuc est rempli par Aliocha Schneider.
 En 2012, elle faisait paraître La Célibataire, une bande dessinée cosignée par l’illustratrice Magalie Foutrier, dont le deuxième tome, Survivante, est paru en 2014.
-Le Noël de Marguerite, conte illustré par Pascal Blanchet, a remporté le prix Ragazzi fiction à la foire de Bologne et est depuis traduit dans plusieurs langues[3].
+Le Noël de Marguerite, conte illustré par Pascal Blanchet, a remporté le prix Ragazzi fiction à la foire de Bologne et est depuis traduit dans plusieurs langues.
 De 2014 à 2016, elle collabore aux textes de la série télévisée Ces Gars-Là avec Simon-Olivier Fecteau et Sugar Sammy.
-En 2018, elle collabore avec Estelle Bachelard pour écrire un album intitulé Ma vie avec un scientifique : la fertilité ; les deux autrices y évoquent avec humour un couple infertile qui s'engage dans un traitement pour y remédier[4],[5].
-En 2022, elle participe au podcast Sexe Oral, où elle aborde les relations toxiques[6].
-Vie familiale
-Sa sœur est la journaliste spécialisée dans les nouvelles technologies Gina Desjardins. Sa mère est la journaliste spécialisée en tourisme Lise Giguère. Son conjoint est le pharmacien québécois Olivier Bernard, auteur de Le Pharmachien[7]. Le couple a entrepris un processus de fertilité mais sans succès[8].
-Elle a auparavant été en couple quelques années avec Simon-Olivier Fecteau[7].
+En 2018, elle collabore avec Estelle Bachelard pour écrire un album intitulé Ma vie avec un scientifique : la fertilité ; les deux autrices y évoquent avec humour un couple infertile qui s'engage dans un traitement pour y remédier,.
+En 2022, elle participe au podcast Sexe Oral, où elle aborde les relations toxiques.
 </t>
         </is>
       </c>
@@ -548,10 +559,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie familiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa sœur est la journaliste spécialisée dans les nouvelles technologies Gina Desjardins. Sa mère est la journaliste spécialisée en tourisme Lise Giguère. Son conjoint est le pharmacien québécois Olivier Bernard, auteur de Le Pharmachien. Le couple a entrepris un processus de fertilité mais sans succès.
+Elle a auparavant été en couple quelques années avec Simon-Olivier Fecteau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>India_Desjardins</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/India_Desjardins</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">2005 : Les Aventures d'India Jones
 2006-2011 : Série Le Journal d'Aurélie Laflamme, mettant en vedette le personnage d'Aurélie Laflamme
@@ -562,13 +613,13 @@
 2008 : Championne
 2009 : Ça déménage!
 2010 : Plein de secrets
-2011 : Les Pieds sur terre[9]
+2011 : Les Pieds sur terre
 2018 : Voler de ses propres ailes
 2011 : Cherchez la femme. Québec Amérique.  (ISBN 978-2-7644-0801-8), collectif sous la direction d'India Desjardins et nouvelle Adam et Ève
 2011 : Monogames en série, recueil de nouvelles Amour et libertinage par les trentenaires d’aujourd’hui, Les 400 coups
 2012 : Le Journal intime de Marie-Cool
 2012 : La Célibataire (ISBN 9782749917511)
-2013 : Le Noël de Marguerite, illustré par Pascal Blanchet, La Pastèque, Montreal, Canada Prix Bologna Raggazzi (Foire internationale du livre jeunesse de Bologne, Italie) 2014, Catégorie Fiction[10]
+2013 : Le Noël de Marguerite, illustré par Pascal Blanchet, La Pastèque, Montreal, Canada Prix Bologna Raggazzi (Foire internationale du livre jeunesse de Bologne, Italie) 2014, Catégorie Fiction
 2013 : Maeva, recueil de nouvelles Miroirs, VLB Éditeur
 2014 : La Célibataire tome 2 - Survivante
 2015 : Un homme s'il vous plaît !, réédition de Les Aventures d'India Jones
@@ -585,38 +636,8 @@
 2021 : India a un prénom bizarre, illustrations de de Pascal Girard, Éditions Fonfon
 2021 : India est dans la lune, illustrations de de Pascal Girard, Éditions Fonfon
 2022 : 23 décembre, réalisé par Myriam Bouchard.
-Le film se classe, en date du 21 décembre 2022, au premier rang des films québécois au box-office en 2022[11].
+Le film se classe, en date du 21 décembre 2022, au premier rang des films québécois au box-office en 2022.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>India_Desjardins</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/India_Desjardins</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Récompenses</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Bologna Raggazzi (Foire internationale du livre jeunesse de Bologne, Italie) 2014, Catégorie Fiction[10] pour Le Noël de Marguerite, illustré par Pascal Blanchet</t>
         </is>
       </c>
     </row>
@@ -641,10 +662,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Bologna Raggazzi (Foire internationale du livre jeunesse de Bologne, Italie) 2014, Catégorie Fiction pour Le Noël de Marguerite, illustré par Pascal Blanchet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>India_Desjardins</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/India_Desjardins</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2009 : Le Journal d'Aurélie Laflamme, film québécois réalisé par Christian Laurence, co-scénarisé par India Desjardins et Christian Laurence
 2015 : Aurélie Laflamme - Les pieds sur terre, film québécois réalisé par Nicolas Monette, scénarisé par India Desjardins</t>
